--- a/AAII_Financials/Yearly/NHLD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NHLD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>NHLD</t>
   </si>
@@ -2216,10 +2216,10 @@
         <v>13500</v>
       </c>
       <c r="F59" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="G59" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="H59" s="3">
         <v>11500</v>
@@ -2249,10 +2249,10 @@
         <v>21500</v>
       </c>
       <c r="F60" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="G60" s="3">
-        <v>34800</v>
+        <v>34500</v>
       </c>
       <c r="H60" s="3">
         <v>18100</v>
@@ -2311,14 +2311,14 @@
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Yearly/NHLD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NHLD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>NHLD</t>
   </si>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>800</v>
@@ -1718,22 +1718,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="E43" s="3">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="F43" s="3">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="G43" s="3">
-        <v>7100</v>
+        <v>5400</v>
       </c>
       <c r="H43" s="3">
-        <v>5100</v>
+        <v>3700</v>
       </c>
       <c r="I43" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
         <v>2100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8500</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
-        <v>9700</v>
+        <v>4100</v>
       </c>
       <c r="F45" s="3">
-        <v>7800</v>
+        <v>2500</v>
       </c>
       <c r="G45" s="3">
-        <v>6700</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>6000</v>
+        <v>1700</v>
       </c>
       <c r="I45" s="3">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="J45" s="3">
-        <v>7100</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>1900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>51300</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>45200</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>37800</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>36600</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>37200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>28600</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>14400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>9400</v>
       </c>
       <c r="E52" s="3">
-        <v>4600</v>
+        <v>9800</v>
       </c>
       <c r="F52" s="3">
-        <v>6800</v>
+        <v>11700</v>
       </c>
       <c r="G52" s="3">
-        <v>9300</v>
+        <v>13700</v>
       </c>
       <c r="H52" s="3">
-        <v>12200</v>
+        <v>16000</v>
       </c>
       <c r="I52" s="3">
-        <v>12700</v>
+        <v>18000</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>5500</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
@@ -2213,22 +2213,22 @@
         <v>19000</v>
       </c>
       <c r="E59" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="F59" s="3">
-        <v>16600</v>
+        <v>10900</v>
       </c>
       <c r="G59" s="3">
-        <v>27300</v>
+        <v>12900</v>
       </c>
       <c r="H59" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>14500</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>25300</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>18100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>20300</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>19200</v>
@@ -2308,26 +2308,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
